--- a/LanguageConfig/ExcelConfig/LanguageConfig.xlsx
+++ b/LanguageConfig/ExcelConfig/LanguageConfig.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>语言ID</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>嘻嘻嘻嘻嘻嘻嘻嘻</t>
+  </si>
+  <si>
+    <t>aa啊啊啊啊啊</t>
   </si>
 </sst>
 </file>
@@ -172,7 +175,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
